--- a/SQL-Data.xlsx
+++ b/SQL-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olirsolutions-my.sharepoint.com/personal/admin_olirsolutions_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{6D5BF887-B160-4E1D-92AE-0CD84BF9B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A836911F-9E09-49AA-94D8-31368419381D}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{6D5BF887-B160-4E1D-92AE-0CD84BF9B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B719000C-B10D-4EB2-8B5C-3C5222D17C3F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 02" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="163">
   <si>
     <t>employee_id</t>
   </si>
@@ -472,6 +472,66 @@
   </si>
   <si>
     <t>total_salary</t>
+  </si>
+  <si>
+    <t>2020-05-12 09:00:00</t>
+  </si>
+  <si>
+    <t>2021-08-22 14:30:00</t>
+  </si>
+  <si>
+    <t>2022-09-10 10:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-18 13:45:00</t>
+  </si>
+  <si>
+    <t>2020-12-01 08:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-25 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-10-05 16:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12 12:30:00</t>
+  </si>
+  <si>
+    <t>2021-09-15 09:45:00</t>
+  </si>
+  <si>
+    <t>2022-11-20 10:20:00</t>
+  </si>
+  <si>
+    <t>2023-05-10 09:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-15 14:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-01 10:45:00</t>
+  </si>
+  <si>
+    <t>2020-07-20 13:20:00</t>
+  </si>
+  <si>
+    <t>2022-03-18 11:10:00</t>
+  </si>
+  <si>
+    <t>2023-01-25 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-10-30 12:00:00,60000</t>
+  </si>
+  <si>
+    <t>2022-06-12 09:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14 16:30:00</t>
+  </si>
+  <si>
+    <t>2020-09-05 08:15:00</t>
   </si>
 </sst>
 </file>
@@ -620,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,7 +700,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,17 +1072,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1461,18 +1520,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1819,15 +1878,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1969,7 +2028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FD2F1D-CAD3-414D-914E-CF1C89F3485B}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -1987,18 +2046,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2845,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A957832-E373-44C8-A5B7-A096A1D85BEE}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2860,23 +2919,23 @@
     <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3235,8 +3294,8 @@
       <c r="D13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="17">
-        <v>43963.375</v>
+      <c r="E13" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="F13" s="1">
         <v>54000</v>
@@ -3263,8 +3322,8 @@
         <v>92</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="17">
-        <v>44430.604166666664</v>
+      <c r="E14" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="F14" s="1">
         <v>81000</v>
@@ -3295,8 +3354,8 @@
       <c r="D15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="17">
-        <v>44814.427083333336</v>
+      <c r="E15" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="F15" s="1">
         <v>69000</v>
@@ -3325,8 +3384,8 @@
       <c r="D16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="17">
-        <v>45003.572916666664</v>
+      <c r="E16" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="F16" s="1">
         <v>95000</v>
@@ -3357,8 +3416,8 @@
       <c r="D17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="17">
-        <v>44166.354166666664</v>
+      <c r="E17" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="F17" s="1">
         <v>58000</v>
@@ -3387,8 +3446,8 @@
       <c r="D18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="17">
-        <v>44372.458333333336</v>
+      <c r="E18" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="F18" s="1">
         <v>87000</v>
@@ -3417,8 +3476,8 @@
       <c r="D19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="17">
-        <v>44839.666666666664</v>
+      <c r="E19" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="F19" s="1">
         <v>62000</v>
@@ -3447,8 +3506,8 @@
         <v>109</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="17">
-        <v>45028.520833333336</v>
+      <c r="E20" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="F20" s="1">
         <v>78000</v>
@@ -3479,8 +3538,8 @@
       <c r="D21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="17">
-        <v>44454.40625</v>
+      <c r="E21" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="F21" s="1">
         <v>71000</v>
@@ -3509,8 +3568,8 @@
       <c r="D22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="17">
-        <v>44885.430555555555</v>
+      <c r="E22" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="F22" s="1">
         <v>93000</v>
@@ -3539,8 +3598,8 @@
       <c r="D23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="17">
-        <v>45056.395833333336</v>
+      <c r="E23" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="F23" s="1">
         <v>67000</v>
@@ -3569,8 +3628,8 @@
         <v>120</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="17">
-        <v>44788.583333333336</v>
+      <c r="E24" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="F24" s="1">
         <v>88000</v>
@@ -3601,8 +3660,8 @@
       <c r="D25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="17">
-        <v>44531.447916666664</v>
+      <c r="E25" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="F25" s="1">
         <v>72000</v>
@@ -3633,8 +3692,8 @@
       <c r="D26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="17">
-        <v>44032.555555555555</v>
+      <c r="E26" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F26" s="1">
         <v>56000</v>
@@ -3663,8 +3722,8 @@
       <c r="D27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="17">
-        <v>44638.465277777781</v>
+      <c r="E27" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F27" s="1">
         <v>81000</v>
@@ -3691,8 +3750,8 @@
         <v>131</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="17">
-        <v>44951.625</v>
+      <c r="E28" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="F28" s="1">
         <v>93000</v>
@@ -3723,8 +3782,8 @@
       <c r="D29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="17">
-        <v>44499.5</v>
+      <c r="E29" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="F29" s="1">
         <v>60000</v>
@@ -3753,8 +3812,8 @@
       <c r="D30" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="17">
-        <v>44724.375</v>
+      <c r="E30" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="F30" s="1">
         <v>85000</v>
@@ -3783,8 +3842,8 @@
         <v>138</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="17">
-        <v>44971.6875</v>
+      <c r="E31" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="F31" s="1">
         <v>78000</v>
@@ -3815,8 +3874,8 @@
       <c r="D32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="17">
-        <v>44079.34375</v>
+      <c r="E32" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="F32" s="1">
         <v>69000</v>

--- a/SQL-Data.xlsx
+++ b/SQL-Data.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olirsolutions-my.sharepoint.com/personal/admin_olirsolutions_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olirsolutions-my.sharepoint.com/personal/admin_olirsolutions_com/Documents/Desktop/SQL Foundation To MAstery Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{6D5BF887-B160-4E1D-92AE-0CD84BF9B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B719000C-B10D-4EB2-8B5C-3C5222D17C3F}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{E5145756-6864-436F-B9B5-3F7D0F802CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DDC6F1E-27AC-4D54-9322-68E01A66FD3C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 02" sheetId="2" r:id="rId1"/>
     <sheet name="Chapter 04" sheetId="3" r:id="rId2"/>
     <sheet name="Chapter 05" sheetId="4" r:id="rId3"/>
     <sheet name="Ch05-Assignment" sheetId="1" r:id="rId4"/>
+    <sheet name="Chapter 08" sheetId="5" r:id="rId5"/>
+    <sheet name="Chapter 08 Assignment" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ch05-Assignment'!#REF!</definedName>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="192">
   <si>
     <t>employee_id</t>
   </si>
@@ -532,6 +534,93 @@
   </si>
   <si>
     <t>2020-09-05 08:15:00</t>
+  </si>
+  <si>
+    <t>employee_name</t>
+  </si>
+  <si>
+    <t>employee_department_id</t>
+  </si>
+  <si>
+    <t>employee_manager_id</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>tbl_departments</t>
+  </si>
+  <si>
+    <t>employee_department_name</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>tbl_employees_join</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>student_name</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>enrollment_year</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>course_name</t>
+  </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>Database Systems</t>
+  </si>
+  <si>
+    <t>Calculus I</t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>Art History</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>Physics I</t>
+  </si>
+  <si>
+    <t>tbl_students</t>
+  </si>
+  <si>
+    <t>tbl_courses</t>
   </si>
 </sst>
 </file>
@@ -728,10 +817,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2029,7 +2114,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection sqref="A1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2904,7 +2989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A957832-E373-44C8-A5B7-A096A1D85BEE}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -3909,4 +3994,382 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0FC6F5-8E64-4981-AB64-8A157D9F1111}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="G1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0272C52-DE54-4852-8019-D67C972A3F7A}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" activeCellId="2" sqref="H8:J8 H3:J3 H5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="G1" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G3" s="1">
+        <v>501</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G4" s="1">
+        <v>502</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="1">
+        <v>503</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G6" s="1">
+        <v>504</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G7" s="1">
+        <v>505</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>506</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>507</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SQL-Data.xlsx
+++ b/SQL-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olirsolutions-my.sharepoint.com/personal/admin_olirsolutions_com/Documents/Desktop/SQL Foundation To MAstery Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{E5145756-6864-436F-B9B5-3F7D0F802CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DDC6F1E-27AC-4D54-9322-68E01A66FD3C}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{E5145756-6864-436F-B9B5-3F7D0F802CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8317D51-E43D-4F50-B697-D3F3F31D597B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="7" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 02" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Ch05-Assignment" sheetId="1" r:id="rId4"/>
     <sheet name="Chapter 08" sheetId="5" r:id="rId5"/>
     <sheet name="Chapter 08 Assignment" sheetId="6" r:id="rId6"/>
+    <sheet name="Chapter 10" sheetId="7" r:id="rId7"/>
+    <sheet name="Ch10-Assignment" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ch05-Assignment'!#REF!</definedName>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="280">
   <si>
     <t>employee_id</t>
   </si>
@@ -621,6 +624,270 @@
   </si>
   <si>
     <t>tbl_courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> date_of_birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enrollment_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> major</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> john.smith@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 555-0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2000-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computer Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> active</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sarah.j@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 555-0102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1999-12-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021-08-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mathematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mike.davis@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 555-0103</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2001-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emily</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> emily.w@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 555-0104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2000-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> David</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> david.brown@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 555-0105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1998-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> graduated</t>
+  </si>
+  <si>
+    <t>BIO100</t>
+  </si>
+  <si>
+    <t>Introduction to Biology</t>
+  </si>
+  <si>
+    <t>Dr. Garcia</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>E201</t>
+  </si>
+  <si>
+    <t>MWF 10:00-11:00</t>
+  </si>
+  <si>
+    <t>CHEM110</t>
+  </si>
+  <si>
+    <t>General Chemistry</t>
+  </si>
+  <si>
+    <t>Prof. Lee</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>D102</t>
+  </si>
+  <si>
+    <t>TTh 1:00-2:30</t>
+  </si>
+  <si>
+    <t>CS101</t>
+  </si>
+  <si>
+    <t>Introduction to Programming</t>
+  </si>
+  <si>
+    <t>Dr. Anderson</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>MWF 9:00-10:00</t>
+  </si>
+  <si>
+    <t>MATH201</t>
+  </si>
+  <si>
+    <t>Calculus II</t>
+  </si>
+  <si>
+    <t>Prof. Martinez</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>TTh 11:00-12:30</t>
+  </si>
+  <si>
+    <t>PHYS150</t>
+  </si>
+  <si>
+    <t>General Physics I</t>
+  </si>
+  <si>
+    <t>Dr. Thompson</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>C301</t>
+  </si>
+  <si>
+    <t>MWF 2:00-3:30</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>Max Enrollment</t>
+  </si>
+  <si>
+    <t>Current Enrollment</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Number </t>
+  </si>
+  <si>
+    <t>Schedule Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> student_id</t>
+  </si>
+  <si>
+    <t>Courses</t>
   </si>
 </sst>
 </file>
@@ -704,7 +971,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -764,12 +1031,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +1088,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -817,6 +1116,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1587,7 +1890,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4151,7 +4454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0272C52-DE54-4852-8019-D67C972A3F7A}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" activeCellId="2" sqref="H8:J8 H3:J3 H5:J5"/>
     </sheetView>
   </sheetViews>
@@ -4372,4 +4675,891 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A390075-05A5-4F5D-B847-414B69294B7F}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1">
+        <v>60000.75</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1">
+        <v>80000.25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1">
+        <v>75000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50000.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1">
+        <v>67000.25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1">
+        <v>90000.75</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1">
+        <v>72000.25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1">
+        <v>65000.25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>46</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1">
+        <v>72500.75</v>
+      </c>
+      <c r="G12" s="1">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{D067ACBF-4E89-4DC3-A044-5A4EAE214550}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{3783CC8B-40B7-4A3B-B993-3502300F7AD4}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{96A67BD4-11ED-4FBC-A6E0-0C26DF67C487}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{5D91CFE2-E763-4E9C-872A-FFD04E0628DB}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{C64F896F-CAA0-4326-8E9E-3CF3067CF1D5}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{1D78DF05-C15E-4B0A-999E-4C34B5ACC2DA}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{C5292369-901F-446E-A989-EE0E3E1888A4}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{9141B541-7D8E-4229-ABDD-C598258DA0D0}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{36567AC1-3B54-4473-A64C-039737152B92}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{097053D4-AFE4-4218-8138-8CFECD2DBB34}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B275D578-1D43-4FF2-B5E6-67013305831C}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="22">
+        <v>3</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="22">
+        <v>30</v>
+      </c>
+      <c r="H13" s="22">
+        <v>22</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>2</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="22">
+        <v>40</v>
+      </c>
+      <c r="H14" s="22">
+        <v>35</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>3</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="22">
+        <v>3</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="22">
+        <v>30</v>
+      </c>
+      <c r="H15" s="22">
+        <v>25</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>4</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="22">
+        <v>4</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="22">
+        <v>35</v>
+      </c>
+      <c r="H16" s="22">
+        <v>28</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>5</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="22">
+        <v>4</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="22">
+        <v>25</v>
+      </c>
+      <c r="H17" s="22">
+        <v>20</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:K11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2085ED-6D76-4065-A5F3-39F37C896451}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SQL-Data.xlsx
+++ b/SQL-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olirsolutions-my.sharepoint.com/personal/admin_olirsolutions_com/Documents/Desktop/SQL Foundation To MAstery Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{E5145756-6864-436F-B9B5-3F7D0F802CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8317D51-E43D-4F50-B697-D3F3F31D597B}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{E5145756-6864-436F-B9B5-3F7D0F802CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05C90283-1973-4E94-A525-DA2C6B8E40E2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="7" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="8" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 02" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Chapter 08 Assignment" sheetId="6" r:id="rId6"/>
     <sheet name="Chapter 10" sheetId="7" r:id="rId7"/>
     <sheet name="Ch10-Assignment" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
+    <sheet name="Chapter 12" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ch05-Assignment'!#REF!</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="304">
   <si>
     <t>employee_id</t>
   </si>
@@ -888,6 +888,78 @@
   </si>
   <si>
     <t>Courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> course_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-01-16</t>
+  </si>
+  <si>
+    <t>Enrollments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> course_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> department_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> credits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Database Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Calculus I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Physics I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> department_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> building</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tech Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Research Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> points_earned</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> points_possible</t>
+  </si>
+  <si>
+    <t>Grades</t>
+  </si>
+  <si>
+    <t>Departments</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>grade_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-01-17</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,6 +1148,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1088,18 +1166,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1460,17 +1533,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1908,18 +1981,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2266,15 +2339,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -2434,18 +2507,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3312,18 +3385,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4318,16 +4391,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4471,18 +4544,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4682,7 +4755,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4699,18 +4772,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5080,8 +5153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B275D578-1D43-4FF2-B5E6-67013305831C}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5093,25 +5166,25 @@
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5356,192 +5429,192 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="18">
         <v>1</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>3</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="18">
         <v>30</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="18">
         <v>22</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="18" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="18">
         <v>2</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>3</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="18">
         <v>40</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="18">
         <v>35</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="18" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="18">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>3</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="18">
         <v>30</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="18">
         <v>25</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="18" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="A16" s="18">
         <v>4</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="18">
         <v>4</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="18">
         <v>35</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="18">
         <v>28</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="18" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="18">
         <v>5</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="18">
         <v>4</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="18">
         <v>25</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="18">
         <v>20</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="18" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5554,12 +5627,336 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2085ED-6D76-4065-A5F3-39F37C896451}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="G1" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" s="1">
+        <v>201</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="1">
+        <v>202</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="1">
+        <v>203</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="G7" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1">
+        <v>201</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>101</v>
+      </c>
+      <c r="B10" s="1">
+        <v>202</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>102</v>
+      </c>
+      <c r="B11" s="1">
+        <v>202</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>102</v>
+      </c>
+      <c r="B12" s="25">
+        <v>203</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>101</v>
+      </c>
+      <c r="C17" s="1">
+        <v>201</v>
+      </c>
+      <c r="D17" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1">
+        <v>202</v>
+      </c>
+      <c r="D18" s="1">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>102</v>
+      </c>
+      <c r="C19" s="1">
+        <v>202</v>
+      </c>
+      <c r="D19" s="1">
+        <v>92</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
+        <v>4</v>
+      </c>
+      <c r="B20" s="25">
+        <v>102</v>
+      </c>
+      <c r="C20" s="25">
+        <v>203</v>
+      </c>
+      <c r="D20" s="25">
+        <v>87</v>
+      </c>
+      <c r="E20" s="25">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SQL-Data.xlsx
+++ b/SQL-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olirsolutions-my.sharepoint.com/personal/admin_olirsolutions_com/Documents/Desktop/SQL Foundation To MAstery Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{E5145756-6864-436F-B9B5-3F7D0F802CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05C90283-1973-4E94-A525-DA2C6B8E40E2}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{E5145756-6864-436F-B9B5-3F7D0F802CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C95D38E-6C52-4548-9DF7-306D1E932D5F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="8" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="5" activeTab="9" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 02" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Chapter 10" sheetId="7" r:id="rId7"/>
     <sheet name="Ch10-Assignment" sheetId="8" r:id="rId8"/>
     <sheet name="Chapter 12" sheetId="9" r:id="rId9"/>
+    <sheet name="Chapter 13 Assignment" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ch05-Assignment'!#REF!</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="315">
   <si>
     <t>employee_id</t>
   </si>
@@ -926,21 +927,6 @@
     <t xml:space="preserve"> Physics I</t>
   </si>
   <si>
-    <t xml:space="preserve"> department_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> building</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tech Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Research Center</t>
-  </si>
-  <si>
     <t xml:space="preserve"> points_earned</t>
   </si>
   <si>
@@ -950,23 +936,71 @@
     <t>Grades</t>
   </si>
   <si>
-    <t>Departments</t>
-  </si>
-  <si>
-    <t>department_id</t>
-  </si>
-  <si>
     <t>grade_id</t>
   </si>
   <si>
     <t xml:space="preserve"> 2024-01-17</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>author_id</t>
+  </si>
+  <si>
+    <t>author_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>book_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>publication_year</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>borrowing_id</t>
+  </si>
+  <si>
+    <t>borrow_date</t>
+  </si>
+  <si>
+    <t>return_date</t>
+  </si>
+  <si>
+    <t>Borrowings</t>
+  </si>
+  <si>
+    <t>phone (Unique)</t>
+  </si>
+  <si>
+    <t>isbn(Unique)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,8 +1032,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,8 +1084,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1123,12 +1183,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,6 +1251,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1172,7 +1271,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1533,17 +1640,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1954,6 +2061,193 @@
     <hyperlink ref="D11" r:id="rId9" xr:uid="{A5F88946-63ED-4834-9A2E-DEACBB3BA49E}"/>
     <hyperlink ref="D12" r:id="rId10" xr:uid="{90A3C585-F9F3-429C-B826-A3CD71FCBD9C}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679E80E7-60B2-45BA-89EA-EB2AE4C774C9}">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="E1" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="K1" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="P1" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1981,18 +2275,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2339,15 +2633,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -2507,18 +2801,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3385,18 +3679,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4391,16 +4685,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4544,18 +4838,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4772,18 +5066,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5173,18 +5467,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5379,19 +5673,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -5627,10 +5921,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2085ED-6D76-4065-A5F3-39F37C896451}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5648,17 +5942,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="G1" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5670,21 +5958,9 @@
       <c r="C2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="19">
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5693,21 +5969,9 @@
       <c r="C3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G3" s="1">
-        <v>201</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="19">
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5716,21 +5980,9 @@
       <c r="C4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="1">
-        <v>202</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="19">
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5739,223 +5991,223 @@
       <c r="C5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="1">
-        <v>203</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>285</v>
+      <c r="A7" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="G7" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="D7" s="23"/>
+      <c r="F7" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>201</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20">
+        <v>101</v>
+      </c>
+      <c r="H9" s="20">
+        <v>201</v>
+      </c>
+      <c r="I9" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>202</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="20">
+        <v>101</v>
+      </c>
+      <c r="H10" s="20">
+        <v>202</v>
+      </c>
+      <c r="I10" s="1">
+        <v>78</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>203</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="19">
+        <v>3</v>
+      </c>
+      <c r="G11" s="20">
+        <v>102</v>
+      </c>
+      <c r="H11" s="20">
+        <v>202</v>
+      </c>
+      <c r="I11" s="1">
+        <v>92</v>
+      </c>
+      <c r="J11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="19">
+        <v>4</v>
+      </c>
+      <c r="G12" s="20">
+        <v>102</v>
+      </c>
+      <c r="H12" s="20">
+        <v>203</v>
+      </c>
+      <c r="I12" s="1">
+        <v>87</v>
+      </c>
+      <c r="J12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>101</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B15" s="19">
         <v>201</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <v>101</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B16" s="19">
         <v>202</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>102</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B17" s="19">
         <v>202</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I11" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>102</v>
+      </c>
+      <c r="B18" s="19">
+        <v>203</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
-        <v>102</v>
-      </c>
-      <c r="B12" s="25">
-        <v>203</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>101</v>
-      </c>
-      <c r="C17" s="1">
-        <v>201</v>
-      </c>
-      <c r="D17" s="1">
-        <v>85.5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>101</v>
-      </c>
-      <c r="C18" s="1">
-        <v>202</v>
-      </c>
-      <c r="D18" s="1">
-        <v>78</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1">
-        <v>102</v>
-      </c>
-      <c r="C19" s="1">
-        <v>202</v>
-      </c>
-      <c r="D19" s="1">
-        <v>92</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
-        <v>4</v>
-      </c>
-      <c r="B20" s="25">
-        <v>102</v>
-      </c>
-      <c r="C20" s="25">
-        <v>203</v>
-      </c>
-      <c r="D20" s="25">
-        <v>87</v>
-      </c>
-      <c r="E20" s="25">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G7:I7"/>
+  <mergeCells count="4">
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL-Data.xlsx
+++ b/SQL-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olirsolutions-my.sharepoint.com/personal/admin_olirsolutions_com/Documents/Desktop/SQL Foundation To MAstery Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{E5145756-6864-436F-B9B5-3F7D0F802CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C95D38E-6C52-4548-9DF7-306D1E932D5F}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="13_ncr:1_{E5145756-6864-436F-B9B5-3F7D0F802CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD24B67F-3FBB-407F-9435-13A65C67A1E6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="5" activeTab="9" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="10" activeTab="14" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 02" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,11 @@
     <sheet name="Ch10-Assignment" sheetId="8" r:id="rId8"/>
     <sheet name="Chapter 12" sheetId="9" r:id="rId9"/>
     <sheet name="Chapter 13 Assignment" sheetId="10" r:id="rId10"/>
+    <sheet name="Chapter 14" sheetId="11" r:id="rId11"/>
+    <sheet name="Chapter 14 -1NF" sheetId="12" r:id="rId12"/>
+    <sheet name="Chapter 14 -2NF" sheetId="13" r:id="rId13"/>
+    <sheet name="Chapter 14 -3NF" sheetId="14" r:id="rId14"/>
+    <sheet name="Chapter 15 - Assignment" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ch05-Assignment'!#REF!</definedName>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="443">
   <si>
     <t>employee_id</t>
   </si>
@@ -994,6 +999,390 @@
   </si>
   <si>
     <t>isbn(Unique)</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>member_name</t>
+  </si>
+  <si>
+    <t>member_phone</t>
+  </si>
+  <si>
+    <t>member_address</t>
+  </si>
+  <si>
+    <t>book_title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>issue_date</t>
+  </si>
+  <si>
+    <t>librarian_name</t>
+  </si>
+  <si>
+    <t>librarian_shift</t>
+  </si>
+  <si>
+    <t>Amit Kumar</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>MySQL Guide</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Priya Sharma</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Java Basics</t>
+  </si>
+  <si>
+    <t>James Smith</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Riya Singh</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Python Programming</t>
+  </si>
+  <si>
+    <t>Mark Johnson</t>
+  </si>
+  <si>
+    <t>Raj Patel</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>Robert Brown</t>
+  </si>
+  <si>
+    <t>MySQL Guide, Java Basics, Data Structures</t>
+  </si>
+  <si>
+    <t>Database, Programming, Programming</t>
+  </si>
+  <si>
+    <t>author_1</t>
+  </si>
+  <si>
+    <t>author_2</t>
+  </si>
+  <si>
+    <t>author_3</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Maharastra</t>
+  </si>
+  <si>
+    <t>member_state</t>
+  </si>
+  <si>
+    <t>book_category</t>
+  </si>
+  <si>
+    <t>book_author</t>
+  </si>
+  <si>
+    <t>Eveing</t>
+  </si>
+  <si>
+    <t>librarian_id</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>address_id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>member_country</t>
+  </si>
+  <si>
+    <t>courses_enrolled</t>
+  </si>
+  <si>
+    <t>course_codes</t>
+  </si>
+  <si>
+    <t>instructors</t>
+  </si>
+  <si>
+    <t>contact_numbers</t>
+  </si>
+  <si>
+    <t>Rahul Sharma</t>
+  </si>
+  <si>
+    <t>DBMS,Java,Python</t>
+  </si>
+  <si>
+    <t>CS201,CS301,CS401</t>
+  </si>
+  <si>
+    <t>Dr.Patel,Prof.Kumar,Ms.Singh</t>
+  </si>
+  <si>
+    <t>Priya Gupta</t>
+  </si>
+  <si>
+    <t>MySQL,JavaScript</t>
+  </si>
+  <si>
+    <t>CS202,CS302</t>
+  </si>
+  <si>
+    <t>Dr.Verma,Prof.Jain</t>
+  </si>
+  <si>
+    <t>Arjun Singh</t>
+  </si>
+  <si>
+    <t>Python,React,Node.js</t>
+  </si>
+  <si>
+    <t>CS401,CS501,CS502</t>
+  </si>
+  <si>
+    <t>Ms.Singh,Dr.Mehta,Prof.Agarwal</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>customer_city</t>
+  </si>
+  <si>
+    <t>customer_phone</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_category</t>
+  </si>
+  <si>
+    <t>unit_price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>O001</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>O002</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>O003</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>emp_id</t>
+  </si>
+  <si>
+    <t>emp_name</t>
+  </si>
+  <si>
+    <t>emp_email</t>
+  </si>
+  <si>
+    <t>dept_id</t>
+  </si>
+  <si>
+    <t>dept_name</t>
+  </si>
+  <si>
+    <t>dept_head</t>
+  </si>
+  <si>
+    <t>dept_location</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>project_manager</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>amit@company.com</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>Dr. Sharma</t>
+  </si>
+  <si>
+    <t>Block A</t>
+  </si>
+  <si>
+    <t>ERP System</t>
+  </si>
+  <si>
+    <t>E002</t>
+  </si>
+  <si>
+    <t>riya@company.com</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>Ms. Gupta</t>
+  </si>
+  <si>
+    <t>Block B</t>
+  </si>
+  <si>
+    <t>Payroll App</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>E003</t>
+  </si>
+  <si>
+    <t>raj@company.com</t>
+  </si>
+  <si>
+    <t>E004</t>
+  </si>
+  <si>
+    <t>Priya Shah</t>
+  </si>
+  <si>
+    <t>priya@company.com</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>Mr. Verma</t>
+  </si>
+  <si>
+    <t>Block C</t>
+  </si>
+  <si>
+    <t>Budget Tool</t>
+  </si>
+  <si>
+    <t>Mike Johnson</t>
+  </si>
+  <si>
+    <t>E005</t>
+  </si>
+  <si>
+    <t>Rohit Jain</t>
+  </si>
+  <si>
+    <t>rohit@company.com</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>librarians</t>
+  </si>
+  <si>
+    <t>borrowing_records</t>
+  </si>
+  <si>
+    <t>addresses</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1220,12 +1609,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,6 +1653,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,12 +1677,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1640,17 +2060,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2069,7 +2489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679E80E7-60B2-45BA-89EA-EB2AE4C774C9}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2094,31 +2514,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="E1" s="27" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="E1" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="K1" s="27" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="K1" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="P1" s="27" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="P1" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2179,7 +2599,7 @@
       <c r="C3" s="1"/>
       <c r="E3" s="19"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="29"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="K3" s="19"/>
@@ -2187,8 +2607,8 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="P3" s="19"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
@@ -2198,7 +2618,7 @@
       <c r="C4" s="1"/>
       <c r="E4" s="19"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="29"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="K4" s="19"/>
@@ -2206,8 +2626,8 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="P4" s="19"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
@@ -2217,7 +2637,7 @@
       <c r="C5" s="1"/>
       <c r="E5" s="19"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="30"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="K5" s="19"/>
@@ -2225,19 +2645,19 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="P5" s="19"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="Q6" s="31" t="s">
+      <c r="Q6" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="R6" s="23" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2247,6 +2667,2449 @@
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D232D06-7081-4C26-8DF1-31107534F6F3}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K2" s="32">
+        <v>45306</v>
+      </c>
+      <c r="L2" s="32">
+        <v>45337</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8765432109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" s="32">
+        <v>45309</v>
+      </c>
+      <c r="L3" s="32">
+        <v>45340</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703276DC-6B19-47E5-B089-B3389BB0CCC5}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K2" s="32">
+        <v>45306</v>
+      </c>
+      <c r="L2" s="32">
+        <v>45337</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8765432109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" s="32">
+        <v>45309</v>
+      </c>
+      <c r="L3" s="32">
+        <v>45340</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I7" s="32">
+        <v>45306</v>
+      </c>
+      <c r="J7" s="32">
+        <v>45337</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I8" s="32">
+        <v>45306</v>
+      </c>
+      <c r="J8" s="32">
+        <v>45337</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I9" s="32">
+        <v>45306</v>
+      </c>
+      <c r="J9" s="32">
+        <v>45337</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8765432109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="32">
+        <v>45309</v>
+      </c>
+      <c r="J10" s="32">
+        <v>45340</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B715316-7F12-4DC6-981D-28597AAF7A3E}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K2" s="32">
+        <v>45306</v>
+      </c>
+      <c r="L2" s="32">
+        <v>45337</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8765432109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" s="32">
+        <v>45309</v>
+      </c>
+      <c r="L3" s="32">
+        <v>45340</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I7" s="32">
+        <v>45306</v>
+      </c>
+      <c r="J7" s="32">
+        <v>45337</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I8" s="32">
+        <v>45306</v>
+      </c>
+      <c r="J8" s="32">
+        <v>45337</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I9" s="32">
+        <v>45306</v>
+      </c>
+      <c r="J9" s="32">
+        <v>45337</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8765432109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="32">
+        <v>45309</v>
+      </c>
+      <c r="J10" s="32">
+        <v>45340</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="H13" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8765432109</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="32">
+        <v>45306</v>
+      </c>
+      <c r="F25" s="32">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="32">
+        <v>45306</v>
+      </c>
+      <c r="F26" s="32">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="32">
+        <v>45306</v>
+      </c>
+      <c r="F27" s="32">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="32">
+        <v>45309</v>
+      </c>
+      <c r="F28" s="32">
+        <v>45340</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:F23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6943837A-641B-4DDD-B0D4-57C4A5962018}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K2" s="32">
+        <v>45306</v>
+      </c>
+      <c r="L2" s="32">
+        <v>45337</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8765432109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" s="32">
+        <v>45309</v>
+      </c>
+      <c r="L3" s="32">
+        <v>45340</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I7" s="32">
+        <v>45306</v>
+      </c>
+      <c r="J7" s="32">
+        <v>45337</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I8" s="32">
+        <v>45306</v>
+      </c>
+      <c r="J8" s="32">
+        <v>45337</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I9" s="32">
+        <v>45306</v>
+      </c>
+      <c r="J9" s="32">
+        <v>45337</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8765432109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="32">
+        <v>45309</v>
+      </c>
+      <c r="J10" s="32">
+        <v>45340</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="H13" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8765432109</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="H18" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="32">
+        <v>45306</v>
+      </c>
+      <c r="F27" s="32">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="32">
+        <v>45306</v>
+      </c>
+      <c r="F28" s="32">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="32">
+        <v>45306</v>
+      </c>
+      <c r="F29" s="32">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="32">
+        <v>45309</v>
+      </c>
+      <c r="F30" s="32">
+        <v>45340</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A25:F25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BECD64-692A-4625-89BE-EF63042ABD70}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="38">
+        <v>9.8765432108765397E+19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7654321098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="38">
+        <v>6.5432109875432096E+29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="32">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="1">
+        <v>500</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="32">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8765432109</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="32">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8765432109</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="32">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7654321098</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" s="1">
+        <v>500</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="32">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="K18" s="1">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K19" s="1">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K20" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2275,18 +5138,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2633,15 +5496,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -2801,18 +5664,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3679,18 +6542,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4685,16 +7548,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4838,18 +7701,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5066,18 +7929,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5467,18 +8330,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5673,19 +8536,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -5942,11 +8805,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5993,19 +8856,19 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="F7" s="24" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -6141,11 +9004,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">

--- a/SQL-Data.xlsx
+++ b/SQL-Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olirsolutions-my.sharepoint.com/personal/admin_olirsolutions_com/Documents/Desktop/SQL Foundation To MAstery Course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChristopherJebersonB\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="624" documentId="13_ncr:1_{E5145756-6864-436F-B9B5-3F7D0F802CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD24B67F-3FBB-407F-9435-13A65C67A1E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B56363E-6F6C-4AA1-9A02-09B3723DB44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="10" activeTab="14" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 02" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="462">
   <si>
     <t>employee_id</t>
   </si>
@@ -1383,6 +1383,63 @@
   </si>
   <si>
     <t>addresses</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Join Date</t>
+  </si>
+  <si>
+    <t>2022-02-15</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2021-12-30</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-10 </t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2022-04-10</t>
+  </si>
+  <si>
+    <t>Los Angels</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1656,6 +1713,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1680,24 +1749,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1716,10 +1771,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2039,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26D1D01-5E8B-4EB7-8931-9E4A2530C973}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,28 +2102,30 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -2083,25 +2136,31 @@
         <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2111,32 +2170,30 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H3" s="1">
         <v>60000.75</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="str">
-        <f>_xlfn.CONCAT("(",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"', ",F3,", '",G3,"', '",H3,"', '",I3,"' )")</f>
-        <v>(1, 'Alice', 'Smith', 'alice.smith@olir.com', '2022-01-15 10:00:00', 60000.75, '', 'New York', 'N/A' )</v>
-      </c>
-      <c r="K3" t="str">
-        <f>_xlfn.CONCAT("(",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"', ",F3,", '",G3,"', '",H3,"', '",I3,"')")</f>
-        <v>(1, 'Alice', 'Smith', 'alice.smith@olir.com', '2022-01-15 10:00:00', 60000.75, '', 'New York', 'N/A')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2146,34 +2203,32 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="1">
         <v>80000.25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J12" si="0">_xlfn.CONCAT("(",A4,", '",B4,"', '",C4,"', '",D4,"', '",E4,"', ",F4,", '",G4,"', '",H4,"', '",I4,"' )")</f>
-        <v>(2, 'Bob', 'Johnson', 'bob.johnson@olirlearning.com', '2021-03-10 11:30:32', 80000.25, 'Engineering', 'San Francisco', 'Alice Smith' )</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K12" si="1">_xlfn.CONCAT("(",A4,", '",B4,"', '",C4,"', '",D4,"', '",E4,"', ",F4,", '",G4,"', '",H4,"', '",I4,"')")</f>
-        <v>(2, 'Bob', 'Johnson', 'bob.johnson@olirlearning.com', '2021-03-10 11:30:32', 80000.25, 'Engineering', 'San Francisco', 'Alice Smith')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2183,34 +2238,32 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H5" s="1">
         <v>75000</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>(3, 'Carol', 'Williams', 'carol.williams@olir.com', '2023-07-01 15:00:30', 75000, 'Marketing', 'San Francisco', 'Alice Smith' )</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>(3, 'Carol', 'Williams', 'carol.williams@olir.com', '2023-07-01 15:00:30', 75000, 'Marketing', 'San Francisco', 'Alice Smith')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2220,34 +2273,32 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H6" s="1">
         <v>50000.5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>(4, 'David', 'Brown', 'david.brown@olir.com', '2021-11-20 11:30:00', 50000.5, 'Sales', 'Chicago', 'Alice Smith' )</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>(4, 'David', 'Brown', 'david.brown@olir.com', '2021-11-20 11:30:00', 50000.5, 'Sales', 'Chicago', 'Alice Smith')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2255,34 +2306,32 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H7" s="1">
         <v>67000.25</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>(5, '', 'Davis', 'eve.davis@olirsolutions.com', '2023-11-15 10:00:00', 67000.25, 'HR', 'New York', 'Alice Smith' )</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v>(5, '', 'Davis', 'eve.davis@olirsolutions.com', '2023-11-15 10:00:00', 67000.25, 'HR', 'New York', 'Alice Smith')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2292,34 +2341,30 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H8" s="1">
         <v>90000.75</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>(6, 'Frank', 'Miller', 'frank.miller@olirsolutions.com', '2022-07-10 11:30:32', 90000.75, 'Engineering', 'San Francisco', 'Bob Johnson' )</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v>(6, 'Frank', 'Miller', 'frank.miller@olirsolutions.com', '2022-07-10 11:30:32', 90000.75, 'Engineering', 'San Francisco', 'Bob Johnson')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2329,34 +2374,32 @@
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H9" s="1">
         <v>72000.25</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>(7, 'Raj', 'Wilson', 'raj.wilson@olirlearning.com', '2022-04-01 15:00:30', 72000.25, 'Sales', 'Chicago', 'David Brown' )</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 'Raj', 'Wilson', 'raj.wilson@olirlearning.com', '2022-04-01 15:00:30', 72000.25, 'Sales', 'Chicago', 'David Brown')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2366,34 +2409,32 @@
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H10" s="1">
         <v>65000.25</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>(8, 'Hank', 'Moore', 'hank.moore@olirlearning.com', '2021-11-20 11:30:00', 65000.25, 'HR', 'New York', 'David Brown' )</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>(8, 'Hank', 'Moore', 'hank.moore@olirlearning.com', '2021-11-20 11:30:00', 65000.25, 'HR', 'New York', 'David Brown')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2403,32 +2444,30 @@
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>(9, 'Ivy', 'Taylor', 'ivy.taylor@olirsolutions.com', '2023-01-15 10:00:00', , 'Engineering', 'San Francisco', 'Bob Johnson' )</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>(9, 'Ivy', 'Taylor', 'ivy.taylor@olirsolutions.com', '2023-01-15 10:00:00', , 'Engineering', 'San Francisco', 'Bob Johnson')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2438,48 +2477,463 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H12" s="1">
         <v>72500.75</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1">
+        <v>60000.75</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="str">
+        <f>_xlfn.CONCAT("(",A16,", '",B16,"', '",C16,"', '",D16,"', '",E16,"', ",F16,", '",G16,"', '",H16,"', '",I16,"' )")</f>
+        <v>(1, 'Alice', 'Smith', 'alice.smith@olir.com', '2022-01-15 10:00:00', 60000.75, '', 'New York', 'N/A' )</v>
+      </c>
+      <c r="L16" t="str">
+        <f>_xlfn.CONCAT("(",A16,", '",B16,"', '",C16,"', '",D16,"', '",E16,"', ",F16,", '",G16,"', '",H16,"', '",I16,"')")</f>
+        <v>(1, 'Alice', 'Smith', 'alice.smith@olir.com', '2022-01-15 10:00:00', 60000.75, '', 'New York', 'N/A')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1">
+        <v>80000.25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="str">
+        <f>_xlfn.CONCAT("(",A17,", '",B17,"', '",C17,"', '",D17,"', '",E17,"', ",F17,", '",G17,"', '",H17,"', '",I17,"' )")</f>
+        <v>(2, 'Bob', 'Johnson', 'bob.johnson@olirlearning.com', '2021-03-10 11:30:32', 80000.25, 'Engineering', 'San Francisco', 'Alice Smith' )</v>
+      </c>
+      <c r="L17" t="str">
+        <f>_xlfn.CONCAT("(",A17,", '",B17,"', '",C17,"', '",D17,"', '",E17,"', ",F17,", '",G17,"', '",H17,"', '",I17,"')")</f>
+        <v>(2, 'Bob', 'Johnson', 'bob.johnson@olirlearning.com', '2021-03-10 11:30:32', 80000.25, 'Engineering', 'San Francisco', 'Alice Smith')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1">
+        <v>75000</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="str">
+        <f>_xlfn.CONCAT("(",A18,", '",B18,"', '",C18,"', '",D18,"', '",E18,"', ",F18,", '",G18,"', '",H18,"', '",I18,"' )")</f>
+        <v>(3, 'Carol', 'Williams', 'carol.williams@olir.com', '2023-07-01 15:00:30', 75000, 'Marketing', 'San Francisco', 'Alice Smith' )</v>
+      </c>
+      <c r="L18" t="str">
+        <f>_xlfn.CONCAT("(",A18,", '",B18,"', '",C18,"', '",D18,"', '",E18,"', ",F18,", '",G18,"', '",H18,"', '",I18,"')")</f>
+        <v>(3, 'Carol', 'Williams', 'carol.williams@olir.com', '2023-07-01 15:00:30', 75000, 'Marketing', 'San Francisco', 'Alice Smith')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50000.5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="str">
+        <f>_xlfn.CONCAT("(",A19,", '",B19,"', '",C19,"', '",D19,"', '",E19,"', ",F19,", '",G19,"', '",H19,"', '",I19,"' )")</f>
+        <v>(4, 'David', 'Brown', 'david.brown@olir.com', '2021-11-20 11:30:00', 50000.5, 'Sales', 'Chicago', 'Alice Smith' )</v>
+      </c>
+      <c r="L19" t="str">
+        <f>_xlfn.CONCAT("(",A19,", '",B19,"', '",C19,"', '",D19,"', '",E19,"', ",F19,", '",G19,"', '",H19,"', '",I19,"')")</f>
+        <v>(4, 'David', 'Brown', 'david.brown@olir.com', '2021-11-20 11:30:00', 50000.5, 'Sales', 'Chicago', 'Alice Smith')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1">
+        <v>67000.25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="str">
+        <f>_xlfn.CONCAT("(",A20,", '",B20,"', '",C20,"', '",D20,"', '",E20,"', ",F20,", '",G20,"', '",H20,"', '",I20,"' )")</f>
+        <v>(5, '', 'Davis', 'eve.davis@olirsolutions.com', '2023-11-15 10:00:00', 67000.25, 'HR', 'New York', 'Alice Smith' )</v>
+      </c>
+      <c r="L20" t="str">
+        <f>_xlfn.CONCAT("(",A20,", '",B20,"', '",C20,"', '",D20,"', '",E20,"', ",F20,", '",G20,"', '",H20,"', '",I20,"')")</f>
+        <v>(5, '', 'Davis', 'eve.davis@olirsolutions.com', '2023-11-15 10:00:00', 67000.25, 'HR', 'New York', 'Alice Smith')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1">
+        <v>90000.75</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="str">
+        <f>_xlfn.CONCAT("(",A21,", '",B21,"', '",C21,"', '",D21,"', '",E21,"', ",F21,", '",G21,"', '",H21,"', '",I21,"' )")</f>
+        <v>(6, 'Frank', 'Miller', 'frank.miller@olirsolutions.com', '2022-07-10 11:30:32', 90000.75, 'Engineering', 'San Francisco', 'Bob Johnson' )</v>
+      </c>
+      <c r="L21" t="str">
+        <f>_xlfn.CONCAT("(",A21,", '",B21,"', '",C21,"', '",D21,"', '",E21,"', ",F21,", '",G21,"', '",H21,"', '",I21,"')")</f>
+        <v>(6, 'Frank', 'Miller', 'frank.miller@olirsolutions.com', '2022-07-10 11:30:32', 90000.75, 'Engineering', 'San Francisco', 'Bob Johnson')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1">
+        <v>72000.25</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="str">
+        <f>_xlfn.CONCAT("(",A22,", '",B22,"', '",C22,"', '",D22,"', '",E22,"', ",F22,", '",G22,"', '",H22,"', '",I22,"' )")</f>
+        <v>(7, 'Raj', 'Wilson', 'raj.wilson@olirlearning.com', '2022-04-01 15:00:30', 72000.25, 'Sales', 'Chicago', 'David Brown' )</v>
+      </c>
+      <c r="L22" t="str">
+        <f>_xlfn.CONCAT("(",A22,", '",B22,"', '",C22,"', '",D22,"', '",E22,"', ",F22,", '",G22,"', '",H22,"', '",I22,"')")</f>
+        <v>(7, 'Raj', 'Wilson', 'raj.wilson@olirlearning.com', '2022-04-01 15:00:30', 72000.25, 'Sales', 'Chicago', 'David Brown')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1">
+        <v>65000.25</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="str">
+        <f>_xlfn.CONCAT("(",A23,", '",B23,"', '",C23,"', '",D23,"', '",E23,"', ",F23,", '",G23,"', '",H23,"', '",I23,"' )")</f>
+        <v>(8, 'Hank', 'Moore', 'hank.moore@olirlearning.com', '2021-11-20 11:30:00', 65000.25, 'HR', 'New York', 'David Brown' )</v>
+      </c>
+      <c r="L23" t="str">
+        <f>_xlfn.CONCAT("(",A23,", '",B23,"', '",C23,"', '",D23,"', '",E23,"', ",F23,", '",G23,"', '",H23,"', '",I23,"')")</f>
+        <v>(8, 'Hank', 'Moore', 'hank.moore@olirlearning.com', '2021-11-20 11:30:00', 65000.25, 'HR', 'New York', 'David Brown')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="str">
+        <f>_xlfn.CONCAT("(",A24,", '",B24,"', '",C24,"', '",D24,"', '",E24,"', ",F24,", '",G24,"', '",H24,"', '",I24,"' )")</f>
+        <v>(9, 'Ivy', 'Taylor', 'ivy.taylor@olirsolutions.com', '2023-01-15 10:00:00', , 'Engineering', 'San Francisco', 'Bob Johnson' )</v>
+      </c>
+      <c r="L24" t="str">
+        <f>_xlfn.CONCAT("(",A24,", '",B24,"', '",C24,"', '",D24,"', '",E24,"', ",F24,", '",G24,"', '",H24,"', '",I24,"')")</f>
+        <v>(9, 'Ivy', 'Taylor', 'ivy.taylor@olirsolutions.com', '2023-01-15 10:00:00', , 'Engineering', 'San Francisco', 'Bob Johnson')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="1">
+        <v>72500.75</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="str">
+        <f>_xlfn.CONCAT("(",A25,", '",B25,"', '",C25,"', '",D25,"', '",E25,"', ",F25,", '",G25,"', '",H25,"', '",I25,"' )")</f>
         <v>(10, 'Jack', 'Williams', 'jack.williams@olir.com', '2022-02-10 11:30:32', 72500.75, 'Sales', 'Chicago', 'Bob Johnson' )</v>
       </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
+      <c r="L25" t="str">
+        <f>_xlfn.CONCAT("(",A25,", '",B25,"', '",C25,"', '",D25,"', '",E25,"', ",F25,", '",G25,"', '",H25,"', '",I25,"')")</f>
         <v>(10, 'Jack', 'Williams', 'jack.williams@olir.com', '2022-02-10 11:30:32', 72500.75, 'Sales', 'Chicago', 'Bob Johnson')</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A14:I14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{6071B63D-6D6B-42F7-A9F0-95C79538C407}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{CBF62A70-90B4-438B-8ED7-E23A3CD7DFBD}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{8D36467A-7F65-4309-9365-C49791ABE8D4}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{E22A7D8E-2FB9-41DF-824D-655BA1117E75}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{7AFFB149-F605-4BD4-B3D1-20DAC3914E24}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{AEA35858-F3DE-438E-9FAB-A03D3EB68A7A}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{D9A1159E-F1AB-4C01-A3D7-51B6718B87F4}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{6CEB92AC-A989-44E8-98CE-4F8F91413582}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{A5F88946-63ED-4834-9A2E-DEACBB3BA49E}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{90A3C585-F9F3-429C-B826-A3CD71FCBD9C}"/>
+    <hyperlink ref="D24" r:id="rId1" xr:uid="{A5F88946-63ED-4834-9A2E-DEACBB3BA49E}"/>
+    <hyperlink ref="D25" r:id="rId2" xr:uid="{90A3C585-F9F3-429C-B826-A3CD71FCBD9C}"/>
+    <hyperlink ref="D23" r:id="rId3" xr:uid="{6CEB92AC-A989-44E8-98CE-4F8F91413582}"/>
+    <hyperlink ref="D22" r:id="rId4" xr:uid="{D9A1159E-F1AB-4C01-A3D7-51B6718B87F4}"/>
+    <hyperlink ref="D21" r:id="rId5" xr:uid="{AEA35858-F3DE-438E-9FAB-A03D3EB68A7A}"/>
+    <hyperlink ref="D20" r:id="rId6" xr:uid="{7AFFB149-F605-4BD4-B3D1-20DAC3914E24}"/>
+    <hyperlink ref="D19" r:id="rId7" xr:uid="{E22A7D8E-2FB9-41DF-824D-655BA1117E75}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{8D36467A-7F65-4309-9365-C49791ABE8D4}"/>
+    <hyperlink ref="D18" r:id="rId9" xr:uid="{CBF62A70-90B4-438B-8ED7-E23A3CD7DFBD}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{6071B63D-6D6B-42F7-A9F0-95C79538C407}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{8B0C9391-6E73-404E-BB45-A1601FD21DFA}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{8451C32D-1784-4C6F-85A1-0C87EB92F5E0}"/>
+    <hyperlink ref="E10" r:id="rId13" xr:uid="{3AD54AF1-CC2A-4D2E-BD73-3660B3C3275B}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{2478C728-2530-4C2B-9ED9-636BE9660C7B}"/>
+    <hyperlink ref="E8" r:id="rId15" xr:uid="{31CB4A89-C0F4-4906-88FA-DF6CEFD6791A}"/>
+    <hyperlink ref="E7" r:id="rId16" xr:uid="{5E332031-C09E-4AE3-A0E0-51EBE6CFE526}"/>
+    <hyperlink ref="E6" r:id="rId17" xr:uid="{2816DAF8-780A-43B3-A664-D8AD0F8AD65A}"/>
+    <hyperlink ref="E4" r:id="rId18" xr:uid="{F397217C-9659-4BF1-BC01-1AB3A3FC7640}"/>
+    <hyperlink ref="E5" r:id="rId19" xr:uid="{F6B7FBB6-1CAD-4471-BDD2-6A1FB0C966CE}"/>
+    <hyperlink ref="E3" r:id="rId20" xr:uid="{1F130E7A-DE22-4CBA-ADD2-FD9D34A7B2D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2514,31 +2968,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="E1" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="K1" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="P1" s="30" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="P1" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2769,10 +3223,10 @@
       <c r="J2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="24">
         <v>45306</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="24">
         <v>45337</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -2806,10 +3260,10 @@
       <c r="J3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="24">
         <v>45309</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="24">
         <v>45340</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -2860,7 +3314,7 @@
       <c r="D1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="26" t="s">
         <v>349</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2887,7 +3341,7 @@
       <c r="M1" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="25" t="s">
         <v>324</v>
       </c>
     </row>
@@ -2922,16 +3376,16 @@
       <c r="J2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="24">
         <v>45306</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="24">
         <v>45337</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="1" t="s">
         <v>331</v>
       </c>
     </row>
@@ -2962,10 +3416,10 @@
       <c r="J3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="24">
         <v>45309</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="24">
         <v>45340</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -2976,20 +3430,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3004,7 +3446,7 @@
       <c r="D6" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="26" t="s">
         <v>349</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -3054,10 +3496,10 @@
       <c r="H7" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="24">
         <v>45306</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="24">
         <v>45337</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -3092,10 +3534,10 @@
       <c r="H8" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="24">
         <v>45306</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="24">
         <v>45337</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -3130,10 +3572,10 @@
       <c r="H9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="24">
         <v>45306</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="24">
         <v>45337</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -3168,10 +3610,10 @@
       <c r="H10" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="24">
         <v>45309</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="24">
         <v>45340</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -3224,7 +3666,7 @@
       <c r="D1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="26" t="s">
         <v>349</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3251,7 +3693,7 @@
       <c r="M1" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="25" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3286,16 +3728,16 @@
       <c r="J2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="24">
         <v>45306</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="24">
         <v>45337</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="1" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3326,10 +3768,10 @@
       <c r="J3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="24">
         <v>45309</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="24">
         <v>45340</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -3340,20 +3782,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3368,7 +3798,7 @@
       <c r="D6" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="26" t="s">
         <v>349</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -3418,10 +3848,10 @@
       <c r="H7" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="24">
         <v>45306</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="24">
         <v>45337</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -3456,10 +3886,10 @@
       <c r="H8" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="24">
         <v>45306</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="24">
         <v>45337</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -3494,10 +3924,10 @@
       <c r="H9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="24">
         <v>45306</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="24">
         <v>45337</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -3532,10 +3962,10 @@
       <c r="H10" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="24">
         <v>45309</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="24">
         <v>45340</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -3546,28 +3976,18 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
       <c r="H13" s="39" t="s">
         <v>439</v>
       </c>
@@ -3591,7 +4011,7 @@
       <c r="E14" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="25" t="s">
         <v>354</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3623,7 +4043,7 @@
       <c r="E15" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="1" t="s">
         <v>355</v>
       </c>
       <c r="H15" s="1">
@@ -3655,7 +4075,7 @@
       <c r="E16" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="1" t="s">
         <v>355</v>
       </c>
       <c r="H16" s="1">
@@ -3714,9 +4134,6 @@
       <c r="C19" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -3728,10 +4145,6 @@
       <c r="C20" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -3743,13 +4156,6 @@
       <c r="C21" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
@@ -3794,10 +4200,10 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="24">
         <v>45306</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="24">
         <v>45337</v>
       </c>
     </row>
@@ -3814,10 +4220,10 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="24">
         <v>45306</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="24">
         <v>45337</v>
       </c>
     </row>
@@ -3834,10 +4240,10 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="24">
         <v>45306</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="24">
         <v>45337</v>
       </c>
     </row>
@@ -3854,10 +4260,10 @@
       <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="24">
         <v>45309</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="24">
         <v>45340</v>
       </c>
     </row>
@@ -3911,7 +4317,7 @@
       <c r="D1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="26" t="s">
         <v>349</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3938,7 +4344,7 @@
       <c r="M1" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="25" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3973,16 +4379,16 @@
       <c r="J2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="24">
         <v>45306</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="24">
         <v>45337</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="1" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4013,10 +4419,10 @@
       <c r="J3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="24">
         <v>45309</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="24">
         <v>45340</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -4039,7 +4445,7 @@
       <c r="D6" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="26" t="s">
         <v>349</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -4089,10 +4495,10 @@
       <c r="H7" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="24">
         <v>45306</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="24">
         <v>45337</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -4127,10 +4533,10 @@
       <c r="H8" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="24">
         <v>45306</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="24">
         <v>45337</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -4165,10 +4571,10 @@
       <c r="H9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="24">
         <v>45306</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="24">
         <v>45337</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -4203,10 +4609,10 @@
       <c r="H10" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="24">
         <v>45309</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="24">
         <v>45340</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -4217,20 +4623,20 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="H13" s="41" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="H13" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -4248,10 +4654,10 @@
       <c r="E14" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="27" t="s">
         <v>356</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -4260,7 +4666,7 @@
       <c r="J14" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="25" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4280,7 +4686,7 @@
       <c r="E15" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="1" t="s">
         <v>355</v>
       </c>
       <c r="H15" s="1">
@@ -4292,7 +4698,7 @@
       <c r="J15" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="1" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4312,7 +4718,7 @@
       <c r="E16" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="1" t="s">
         <v>355</v>
       </c>
       <c r="H16" s="1">
@@ -4324,7 +4730,7 @@
       <c r="J16" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="1" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4377,7 +4783,6 @@
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G20" s="36"/>
       <c r="H20" s="1">
         <v>1</v>
       </c>
@@ -4401,7 +4806,6 @@
       <c r="D21" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G21" s="36"/>
       <c r="H21" s="1">
         <v>2</v>
       </c>
@@ -4483,10 +4887,10 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="24">
         <v>45306</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="24">
         <v>45337</v>
       </c>
     </row>
@@ -4503,10 +4907,10 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="24">
         <v>45306</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="24">
         <v>45337</v>
       </c>
     </row>
@@ -4523,10 +4927,10 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="24">
         <v>45306</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="24">
         <v>45337</v>
       </c>
     </row>
@@ -4543,10 +4947,10 @@
       <c r="D30" s="1">
         <v>2</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="24">
         <v>45309</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="24">
         <v>45340</v>
       </c>
     </row>
@@ -4566,7 +4970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BECD64-692A-4625-89BE-EF63042ABD70}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -4630,7 +5034,7 @@
       <c r="E3" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="28">
         <v>9.8765432108765397E+19</v>
       </c>
     </row>
@@ -4670,7 +5074,7 @@
       <c r="E5" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="28">
         <v>6.5432109875432096E+29</v>
       </c>
     </row>
@@ -4748,7 +5152,7 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="24">
         <v>45306</v>
       </c>
     </row>
@@ -4780,7 +5184,7 @@
       <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="24">
         <v>45306</v>
       </c>
     </row>
@@ -4812,7 +5216,7 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="24">
         <v>45309</v>
       </c>
     </row>
@@ -4844,7 +5248,7 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="24">
         <v>45309</v>
       </c>
     </row>
@@ -4876,7 +5280,7 @@
       <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="24">
         <v>45311</v>
       </c>
     </row>
@@ -5138,18 +5542,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5496,15 +5900,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -5664,18 +6068,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -6542,18 +6946,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -7548,16 +7952,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -7701,18 +8105,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -7929,18 +8333,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -8330,18 +8734,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -8536,19 +8940,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -8805,11 +9209,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -8856,19 +9260,19 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="F7" s="27" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="F7" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -9004,11 +9408,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
